--- a/Datos_2020_2021/CBA 2022 - escenarios alternativos.xlsx
+++ b/Datos_2020_2021/CBA 2022 - escenarios alternativos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mariajosezunigabasualto/MJZ/CTP2022/SARDINACOMUN/PRIMER_INFORME/Datos_2020_2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F9481C8A-7106-2F4F-ABCA-93BD4621A512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C1A53B7-E741-F24B-94E0-5E9B0AC8F9A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1940" yWindow="5340" windowWidth="28180" windowHeight="17440" xr2:uid="{3B3EB2F2-8BCA-E140-B3A3-D6059C18A3BC}"/>
+    <workbookView xWindow="16820" yWindow="4300" windowWidth="28180" windowHeight="17440" xr2:uid="{3B3EB2F2-8BCA-E140-B3A3-D6059C18A3BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t>2021/2022</t>
   </si>
@@ -74,12 +74,31 @@
   <si>
     <t>Edad 1</t>
   </si>
+  <si>
+    <t>prop-descarte</t>
+  </si>
+  <si>
+    <t>CBA2022 - descarte</t>
+  </si>
+  <si>
+    <t>sept</t>
+  </si>
+  <si>
+    <t>julio</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -117,7 +136,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -382,16 +401,62 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -414,10 +479,10 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -430,28 +495,42 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2308,16 +2387,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>539750</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:rowOff>146050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2344,16 +2423,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>177800</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>622300</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2680,33 +2759,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9FE91C6-5817-3947-A0AF-28A37A6B8957}">
-  <dimension ref="D3:P11"/>
+  <dimension ref="D3:R23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="Q20" sqref="Q20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="15" max="15" width="14.6640625" customWidth="1"/>
-    <col min="16" max="16" width="13.33203125" customWidth="1"/>
+    <col min="17" max="17" width="14.6640625" customWidth="1"/>
+    <col min="18" max="18" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="4:16" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="4:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="O4" s="21" t="s">
+    <row r="3" spans="4:18" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="4:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Q4" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="22" t="s">
+      <c r="R4" s="23" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="4:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="4:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D5" s="1"/>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="5" t="s">
         <v>9</v>
       </c>
       <c r="G5" s="2">
@@ -2730,253 +2809,363 @@
       <c r="M5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N5" s="14" t="s">
+      <c r="N5" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="O5" s="23" t="s">
+      <c r="O5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q5" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="P5" s="24" t="s">
+      <c r="R5" s="25" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="4:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="4:18" x14ac:dyDescent="0.2">
       <c r="D6" s="1"/>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="8">
         <v>102949</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6" s="9">
         <v>172682</v>
       </c>
-      <c r="I6" s="8">
+      <c r="I6" s="9">
         <v>18019.3</v>
       </c>
-      <c r="J6" s="8">
+      <c r="J6" s="9">
         <v>8985.9</v>
       </c>
-      <c r="K6" s="8">
+      <c r="K6" s="9">
         <v>13200</v>
       </c>
-      <c r="L6" s="8">
+      <c r="L6" s="9">
         <f>+SUM(G6:K6)</f>
         <v>315836.2</v>
       </c>
-      <c r="M6" s="8">
+      <c r="M6" s="9">
         <f>+L6*0.7</f>
         <v>221085.34</v>
       </c>
-      <c r="N6" s="15">
+      <c r="N6" s="16">
         <f>+SUM(M6:M7)</f>
         <v>302530.95399999997</v>
       </c>
-      <c r="O6" s="19">
+      <c r="O6" s="27">
+        <f>+(L6*0.96)*0.7</f>
+        <v>212241.92639999997</v>
+      </c>
+      <c r="P6" s="29">
+        <f>+O6+O7</f>
+        <v>290429.71583999996</v>
+      </c>
+      <c r="Q6" s="20">
         <f>+G6/L6</f>
         <v>0.32595693590538388</v>
       </c>
-      <c r="P6" s="25"/>
+      <c r="R6" s="26"/>
     </row>
-    <row r="7" spans="4:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E7" s="9"/>
-      <c r="F7" s="10" t="s">
+    <row r="7" spans="4:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E7" s="10"/>
+      <c r="F7" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="12">
         <v>102949</v>
       </c>
-      <c r="H7" s="12">
+      <c r="H7" s="13">
         <v>87351.5</v>
       </c>
-      <c r="I7" s="12">
+      <c r="I7" s="13">
         <v>71340.800000000003</v>
       </c>
-      <c r="J7" s="12">
+      <c r="J7" s="13">
         <v>6250.11</v>
       </c>
-      <c r="K7" s="12">
+      <c r="K7" s="13">
         <v>3593.97</v>
       </c>
-      <c r="L7" s="12">
+      <c r="L7" s="13">
         <f>+SUM(G7:K7)</f>
         <v>271485.37999999995</v>
       </c>
-      <c r="M7" s="12">
+      <c r="M7" s="13">
         <f>+L7*0.3</f>
         <v>81445.613999999987</v>
       </c>
-      <c r="N7" s="16"/>
-      <c r="O7" s="20">
+      <c r="N7" s="17"/>
+      <c r="O7" s="28">
+        <f>+(L7*0.96)*0.3</f>
+        <v>78187.789439999979</v>
+      </c>
+      <c r="P7" s="30"/>
+      <c r="Q7" s="21">
         <f>+G7/L7</f>
         <v>0.37920642356505541</v>
       </c>
-      <c r="P7" s="13">
+      <c r="R7" s="14">
         <f>+H7/L7</f>
         <v>0.32175397437607878</v>
       </c>
     </row>
-    <row r="8" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="E8" s="5" t="s">
+    <row r="8" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="E8" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="8">
         <v>370058</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H8" s="9">
         <v>172682</v>
       </c>
-      <c r="I8" s="8">
+      <c r="I8" s="9">
         <v>18019.3</v>
       </c>
-      <c r="J8" s="8">
+      <c r="J8" s="9">
         <v>8985.9</v>
       </c>
-      <c r="K8" s="8">
+      <c r="K8" s="9">
         <v>13200</v>
       </c>
-      <c r="L8" s="8">
+      <c r="L8" s="9">
         <f t="shared" ref="L8:L11" si="0">+SUM(G8:K8)</f>
         <v>582945.20000000007</v>
       </c>
-      <c r="M8" s="8">
+      <c r="M8" s="9">
         <f>+L8*0.7</f>
         <v>408061.64</v>
       </c>
-      <c r="N8" s="17">
+      <c r="N8" s="18">
         <f>+SUM(M8:M9)</f>
         <v>637631.804</v>
       </c>
-      <c r="O8" s="19">
+      <c r="O8" s="27">
+        <f>+(L8*0.96)*0.7</f>
+        <v>391739.17439999996</v>
+      </c>
+      <c r="P8" s="29">
+        <f>+O8+O9</f>
+        <v>612126.53183999995</v>
+      </c>
+      <c r="Q8" s="20">
         <f>+G8/L8</f>
         <v>0.63480752564735066</v>
       </c>
-      <c r="P8" s="25"/>
+      <c r="R8" s="26"/>
     </row>
-    <row r="9" spans="4:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E9" s="9"/>
-      <c r="F9" s="10" t="s">
+    <row r="9" spans="4:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E9" s="10"/>
+      <c r="F9" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G9" s="12">
         <v>370058</v>
       </c>
-      <c r="H9" s="12">
+      <c r="H9" s="13">
         <v>313991</v>
       </c>
-      <c r="I9" s="12">
+      <c r="I9" s="13">
         <v>71340.800000000003</v>
       </c>
-      <c r="J9" s="12">
+      <c r="J9" s="13">
         <v>6250.11</v>
       </c>
-      <c r="K9" s="12">
+      <c r="K9" s="13">
         <v>3593.97</v>
       </c>
-      <c r="L9" s="12">
+      <c r="L9" s="13">
         <f t="shared" si="0"/>
         <v>765233.88</v>
       </c>
-      <c r="M9" s="12">
+      <c r="M9" s="13">
         <f>+L9*0.3</f>
         <v>229570.16399999999</v>
       </c>
-      <c r="N9" s="18"/>
-      <c r="O9" s="20">
+      <c r="N9" s="19"/>
+      <c r="O9" s="28">
+        <f>+(L9*0.96)*0.3</f>
+        <v>220387.35743999999</v>
+      </c>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="21">
         <f>+G9/L9</f>
         <v>0.48358810250272766</v>
       </c>
-      <c r="P9" s="13">
+      <c r="R9" s="14">
         <f>+H9/L9</f>
         <v>0.41032030625721905</v>
       </c>
     </row>
-    <row r="10" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="E10" s="5" t="s">
+    <row r="10" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="E10" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="8">
         <v>162968</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H10" s="9">
         <v>172682</v>
       </c>
-      <c r="I10" s="8">
+      <c r="I10" s="9">
         <v>18019.3</v>
       </c>
-      <c r="J10" s="8">
+      <c r="J10" s="9">
         <v>8985.9</v>
       </c>
-      <c r="K10" s="8">
+      <c r="K10" s="9">
         <v>13200</v>
       </c>
-      <c r="L10" s="8">
+      <c r="L10" s="9">
         <f t="shared" si="0"/>
         <v>375855.2</v>
       </c>
-      <c r="M10" s="8">
+      <c r="M10" s="9">
         <f>+L10*0.7</f>
         <v>263098.64</v>
       </c>
-      <c r="N10" s="17">
+      <c r="N10" s="18">
         <f>+SUM(M10:M11)</f>
         <v>377827.60399999999</v>
       </c>
-      <c r="O10" s="19">
+      <c r="O10" s="27">
+        <f>+(L10*0.96)*0.7</f>
+        <v>252574.69439999995</v>
+      </c>
+      <c r="P10" s="29">
+        <f>+O10+O11</f>
+        <v>362714.49983999995</v>
+      </c>
+      <c r="Q10" s="20">
         <f>+G10/L10</f>
         <v>0.43359251115855252</v>
       </c>
-      <c r="P10" s="25"/>
+      <c r="R10" s="26"/>
     </row>
-    <row r="11" spans="4:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E11" s="9"/>
-      <c r="F11" s="10" t="s">
+    <row r="11" spans="4:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E11" s="10"/>
+      <c r="F11" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="G11" s="11">
+      <c r="G11" s="12">
         <v>162968</v>
       </c>
-      <c r="H11" s="12">
+      <c r="H11" s="13">
         <v>138277</v>
       </c>
-      <c r="I11" s="12">
+      <c r="I11" s="13">
         <v>71340.800000000003</v>
       </c>
-      <c r="J11" s="12">
+      <c r="J11" s="13">
         <v>6250.11</v>
       </c>
-      <c r="K11" s="12">
+      <c r="K11" s="13">
         <v>3593.97</v>
       </c>
-      <c r="L11" s="12">
+      <c r="L11" s="13">
         <f t="shared" si="0"/>
         <v>382429.87999999995</v>
       </c>
-      <c r="M11" s="12">
+      <c r="M11" s="13">
         <f>+L11*0.3</f>
         <v>114728.96399999998</v>
       </c>
-      <c r="N11" s="18"/>
-      <c r="O11" s="20">
+      <c r="N11" s="19"/>
+      <c r="O11" s="28">
+        <f>+(L11*0.96)*0.3</f>
+        <v>110139.80543999998</v>
+      </c>
+      <c r="P11" s="30"/>
+      <c r="Q11" s="21">
         <f>+G11/L11</f>
         <v>0.42613825049444365</v>
       </c>
-      <c r="P11" s="13">
+      <c r="R11" s="14">
         <f>+H11/L11</f>
         <v>0.36157478071535631</v>
       </c>
     </row>
+    <row r="21" spans="11:16" x14ac:dyDescent="0.2">
+      <c r="K21" t="s">
+        <v>16</v>
+      </c>
+      <c r="L21">
+        <v>8.5</v>
+      </c>
+      <c r="M21">
+        <v>16.3</v>
+      </c>
+      <c r="N21">
+        <v>28.9</v>
+      </c>
+      <c r="O21">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="P21">
+        <v>38.200000000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="11:16" x14ac:dyDescent="0.2">
+      <c r="K22" t="s">
+        <v>15</v>
+      </c>
+      <c r="L22">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="M22">
+        <v>14.1</v>
+      </c>
+      <c r="N22">
+        <v>27.6</v>
+      </c>
+      <c r="O22">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="P22">
+        <v>37.299999999999997</v>
+      </c>
+    </row>
+    <row r="23" spans="11:16" x14ac:dyDescent="0.2">
+      <c r="L23" s="31">
+        <f>1-L22/L21</f>
+        <v>2.3529411764705799E-2</v>
+      </c>
+      <c r="M23" s="31">
+        <f t="shared" ref="M23:P23" si="1">1-M22/M21</f>
+        <v>0.13496932515337434</v>
+      </c>
+      <c r="N23" s="31">
+        <f t="shared" si="1"/>
+        <v>4.4982698961937628E-2</v>
+      </c>
+      <c r="O23" s="31">
+        <f t="shared" si="1"/>
+        <v>1.724137931034464E-2</v>
+      </c>
+      <c r="P23" s="31">
+        <f t="shared" si="1"/>
+        <v>2.3560209424083878E-2</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="9">
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="P10:P11"/>
     <mergeCell ref="E6:E7"/>
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="E10:E11"/>
